--- a/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1665,7 +1665,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08513208350445776</v>
+        <v>0.08225746044888664</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09238485854420732</v>
+        <v>0.09403051591253478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1316344705159289</v>
+        <v>0.1339787924210724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1083991749941045</v>
+        <v>0.1069974049069095</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02889260800540573</v>
+        <v>0.03190753015642073</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04744334672934518</v>
+        <v>0.04344152796962814</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07533953784429562</v>
+        <v>0.07578751883754452</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07120006662182676</v>
+        <v>0.07126421138692865</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06966234380181016</v>
+        <v>0.06922658541758306</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07791505183143033</v>
+        <v>0.08060741638394149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1177954808092187</v>
+        <v>0.1190803408704095</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09579322676935122</v>
+        <v>0.09501327513299022</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1505341938887245</v>
+        <v>0.1432965574395926</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1617981321413406</v>
+        <v>0.1584205304026527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2033283199590162</v>
+        <v>0.2110240936422757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1699683225156786</v>
+        <v>0.1655169302901658</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08107310201450674</v>
+        <v>0.08216781867465174</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.10437881173745</v>
+        <v>0.1054298574641408</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1498411480799915</v>
+        <v>0.1464376842204309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1158081439893929</v>
+        <v>0.1152094837976204</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1111327946207225</v>
+        <v>0.11368056642628</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1256152851812452</v>
+        <v>0.1247424981862505</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.170768434804144</v>
+        <v>0.1705333532663233</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1335848262750848</v>
+        <v>0.133552481518374</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09316084366501426</v>
+        <v>0.09108926609324623</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1174634651302722</v>
+        <v>0.1165422797142068</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1100390660307102</v>
+        <v>0.1078982864609612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1387024223096466</v>
+        <v>0.1401752440645002</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05014835909277317</v>
+        <v>0.0510199191653403</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07925022711595157</v>
+        <v>0.07898919393390159</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06864167393604474</v>
+        <v>0.06950757177807436</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1076613663101942</v>
+        <v>0.108377589757769</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07783269392574271</v>
+        <v>0.07770032413093705</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1090052688657581</v>
+        <v>0.1072481481742287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09895072755032699</v>
+        <v>0.09925145179245828</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1332397522068191</v>
+        <v>0.1318244350624083</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.165893332701613</v>
+        <v>0.1621252373144196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1919394097066931</v>
+        <v>0.1944454565994997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1812286134590087</v>
+        <v>0.1845211292829398</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2134813846427162</v>
+        <v>0.2148553588439175</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1053097962212702</v>
+        <v>0.1039582703089355</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1519806274828966</v>
+        <v>0.1526454707559549</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1343681767837434</v>
+        <v>0.136325665087819</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1639468942164777</v>
+        <v>0.1635469088515656</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1231087795374196</v>
+        <v>0.1231672983296446</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1630314982288269</v>
+        <v>0.1638562572681378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1481591278801202</v>
+        <v>0.1480928741213726</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1776675974122199</v>
+        <v>0.1787482894984996</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.174027855400122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.200369509066796</v>
+        <v>0.2003695090667961</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.177141608682655</v>
@@ -969,7 +969,7 @@
         <v>0.1744726952215815</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1864360685070722</v>
+        <v>0.1864360685070723</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.126079735330991</v>
+        <v>0.1251139175919116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1800572345181823</v>
+        <v>0.1809382028478355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.141776348735865</v>
+        <v>0.1412533884116894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1685418507307184</v>
+        <v>0.1656001873224551</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1229602373434377</v>
+        <v>0.120359395743246</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.200625872891266</v>
+        <v>0.2095289519956247</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1115036216482568</v>
+        <v>0.1198359600567594</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1103865717164384</v>
+        <v>0.1116404138754153</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.133242335574316</v>
+        <v>0.1327621732800399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1977277611121009</v>
+        <v>0.1972357382560544</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1447800715182116</v>
+        <v>0.1465675262093925</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.160581746250205</v>
+        <v>0.1594063163053125</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1878372999407972</v>
+        <v>0.1874919914560354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2454520665484566</v>
+        <v>0.2469224209588446</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2096512596407166</v>
+        <v>0.2121267378640607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2384540715096949</v>
+        <v>0.2408290686898413</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2402579629200857</v>
+        <v>0.2392070570519158</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3226618132364243</v>
+        <v>0.3240949465978856</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2449444501543031</v>
+        <v>0.2445235168865501</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1945148327256089</v>
+        <v>0.196835159771991</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1922298726217956</v>
+        <v>0.1881485821706679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2568813940423125</v>
+        <v>0.25892514824156</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2040127577904994</v>
+        <v>0.2077558608820354</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2158972151921131</v>
+        <v>0.218433575970739</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.113562462373808</v>
+        <v>0.1125939930877786</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1605158778809681</v>
+        <v>0.1600641293240142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1678401699867035</v>
+        <v>0.1670499879222814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1709061902308166</v>
+        <v>0.1692968412194221</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1100447051288233</v>
+        <v>0.1101539027788247</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1602810275366688</v>
+        <v>0.1584207815841867</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1296019957036865</v>
+        <v>0.1292085154843929</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1435424134800827</v>
+        <v>0.1443757917683623</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1170057256760105</v>
+        <v>0.1196301328293475</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1657485757935315</v>
+        <v>0.165027202967832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1573910379430903</v>
+        <v>0.1593719657560137</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1655832408150638</v>
+        <v>0.1647944119830821</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1518572923757867</v>
+        <v>0.1511700192775057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.207828075561421</v>
+        <v>0.2088680117323799</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2161027316428017</v>
+        <v>0.2154184144195474</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2185810022678949</v>
+        <v>0.2168106446630938</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1609412505901314</v>
+        <v>0.163419867799387</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2208977961186359</v>
+        <v>0.2185673788279464</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1833032797209979</v>
+        <v>0.1813112472164728</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1870152484261602</v>
+        <v>0.1899518305144247</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.148263083491922</v>
+        <v>0.1497248052439155</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2032863578710107</v>
+        <v>0.2028805535469126</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1927236925389909</v>
+        <v>0.1955393539584112</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1992998325571838</v>
+        <v>0.2008065280771458</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0914585029702662</v>
+        <v>0.08733757274616014</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1534068902284183</v>
+        <v>0.1512914343907726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1726203337364964</v>
+        <v>0.1731104504663644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1453877193481448</v>
+        <v>0.1458841737515981</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1626261162153483</v>
+        <v>0.1607794266008739</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2421683220213283</v>
+        <v>0.2409777409438631</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2118646418646803</v>
+        <v>0.2139805726974358</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2233133027174958</v>
+        <v>0.2223670852298263</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1416518227731733</v>
+        <v>0.1410155876812156</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2151021620773862</v>
+        <v>0.2119315211491519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2030289648658919</v>
+        <v>0.2029396208284642</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1984251428097391</v>
+        <v>0.1994657891618413</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1649687319887558</v>
+        <v>0.1612836577942177</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2217680615940098</v>
+        <v>0.2231168341530696</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2407751796864826</v>
+        <v>0.2399610953996158</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.209298869275646</v>
+        <v>0.2136125715381333</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2297433755046518</v>
+        <v>0.2329216871057725</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3114182541885214</v>
+        <v>0.3131338194529105</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2810255925499222</v>
+        <v>0.2826734804178375</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2726279363667828</v>
+        <v>0.2716212580864446</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1959813934982702</v>
+        <v>0.1925230652239698</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2651111318020956</v>
+        <v>0.2621542809209984</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2519144339259052</v>
+        <v>0.2529401408926718</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2392887166211968</v>
+        <v>0.2388953663523536</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01320227454545798</v>
+        <v>0.01321509059466705</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01938630072449544</v>
+        <v>0.01924774472565401</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02687833951878806</v>
+        <v>0.02562797393116526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02207886811277053</v>
+        <v>0.02167899415647585</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1595704167613344</v>
+        <v>0.1598311353669493</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2176304642151436</v>
+        <v>0.2170196939350486</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2044878273925947</v>
+        <v>0.2033400919361776</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1563939948181287</v>
+        <v>0.1591802854793103</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1331198238698046</v>
+        <v>0.1338234100031923</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1789417014562051</v>
+        <v>0.181308620237967</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1695774776810595</v>
+        <v>0.1688913852227031</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1316125034400056</v>
+        <v>0.1320005108144008</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05020079817857698</v>
+        <v>0.05066557268702519</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0689987859917357</v>
+        <v>0.06605882747390462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07893585441394052</v>
+        <v>0.07979256509445375</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1259023675269113</v>
+        <v>0.1245309525793156</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2041432557595447</v>
+        <v>0.2029009185030569</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2722090706132812</v>
+        <v>0.2714480848352484</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2596415754914865</v>
+        <v>0.2590814660086658</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2062339966822329</v>
+        <v>0.2057169352679755</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1699277987836568</v>
+        <v>0.1723849969734318</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2248197520445792</v>
+        <v>0.2250938469394209</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2141946722977287</v>
+        <v>0.2161816700293673</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1735051065644883</v>
+        <v>0.174515616274372</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1106908520053986</v>
+        <v>0.1109908587520502</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1530553441025325</v>
+        <v>0.1524953803485359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1572212782994286</v>
+        <v>0.1565045102288575</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1572955342224419</v>
+        <v>0.1572117320921173</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1372270167260301</v>
+        <v>0.1383823331607493</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1957946741005049</v>
+        <v>0.1967533906436132</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1733919448246533</v>
+        <v>0.1727971204172088</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1621828110507663</v>
+        <v>0.1627463551240367</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1271239733432954</v>
+        <v>0.1269960261113949</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1780367294620193</v>
+        <v>0.1788140383872156</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1690281179010548</v>
+        <v>0.1680409240205929</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1625341858543842</v>
+        <v>0.1620130950463419</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1335110274957939</v>
+        <v>0.1323630627164576</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.179470788755303</v>
+        <v>0.1801174294877362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1842652901561348</v>
+        <v>0.1847853401437039</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1841927377541775</v>
+        <v>0.1838190790601248</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1604169995652397</v>
+        <v>0.1629555483870949</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2253124429032528</v>
+        <v>0.224864149966152</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2028705908352822</v>
+        <v>0.2012580226221104</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1834308901522407</v>
+        <v>0.1841064993209758</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1433867437299335</v>
+        <v>0.1443558108647766</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.197466911972201</v>
+        <v>0.1989512610055652</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1880237963215373</v>
+        <v>0.1893798048893766</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1794690762951212</v>
+        <v>0.1796788047726154</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>39970</v>
+        <v>38620</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>39714</v>
+        <v>40421</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55757</v>
+        <v>56750</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>58381</v>
+        <v>57626</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8779</v>
+        <v>9695</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14775</v>
+        <v>13528</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25302</v>
+        <v>25452</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33855</v>
+        <v>33886</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>53874</v>
+        <v>53537</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>57758</v>
+        <v>59754</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>89455</v>
+        <v>90431</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>97141</v>
+        <v>96350</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70676</v>
+        <v>67278</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>69553</v>
+        <v>68101</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>86124</v>
+        <v>89384</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>91540</v>
+        <v>89142</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24634</v>
+        <v>24967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32505</v>
+        <v>32832</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50322</v>
+        <v>49179</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55067</v>
+        <v>54782</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>85945</v>
+        <v>87915</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>93117</v>
+        <v>92470</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>129683</v>
+        <v>129505</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>135464</v>
+        <v>135431</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33737</v>
+        <v>32986</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>47462</v>
+        <v>47090</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>40335</v>
+        <v>39551</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>66096</v>
+        <v>66798</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18500</v>
+        <v>18822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>25881</v>
+        <v>25796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24835</v>
+        <v>25148</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44646</v>
+        <v>44943</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>56899</v>
+        <v>56803</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>79642</v>
+        <v>78358</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>72072</v>
+        <v>72291</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>118745</v>
+        <v>117484</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60075</v>
+        <v>58711</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>77554</v>
+        <v>78567</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>66430</v>
+        <v>67637</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>101730</v>
+        <v>102385</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>38850</v>
+        <v>38352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49632</v>
+        <v>49850</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>48615</v>
+        <v>49323</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>67986</v>
+        <v>67820</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>89998</v>
+        <v>90041</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>119115</v>
+        <v>119718</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>107913</v>
+        <v>107865</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>158340</v>
+        <v>159303</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>68384</v>
+        <v>67860</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>111503</v>
+        <v>112049</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>71310</v>
+        <v>71047</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>77825</v>
+        <v>76466</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20249</v>
+        <v>19821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49065</v>
+        <v>51242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17389</v>
+        <v>18688</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20114</v>
+        <v>20343</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>94211</v>
+        <v>93872</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>170802</v>
+        <v>170377</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>95399</v>
+        <v>96577</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>103410</v>
+        <v>102653</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>101881</v>
+        <v>101694</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>152000</v>
+        <v>152911</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>105450</v>
+        <v>106695</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110107</v>
+        <v>111204</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39565</v>
+        <v>39392</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>78910</v>
+        <v>79260</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38199</v>
+        <v>38133</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35444</v>
+        <v>35867</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>135920</v>
+        <v>133034</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>221900</v>
+        <v>223666</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>134429</v>
+        <v>136895</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>139031</v>
+        <v>140664</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>139278</v>
+        <v>138090</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>183401</v>
+        <v>182885</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>185854</v>
+        <v>184979</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>190022</v>
+        <v>188233</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>78061</v>
+        <v>78138</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>120681</v>
+        <v>119280</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>101562</v>
+        <v>101253</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>120752</v>
+        <v>121453</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>226500</v>
+        <v>231580</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>314177</v>
+        <v>312810</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>297621</v>
+        <v>301367</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>323397</v>
+        <v>321857</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>186245</v>
+        <v>185402</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>237459</v>
+        <v>238647</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>239296</v>
+        <v>238538</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>243030</v>
+        <v>241061</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>114164</v>
+        <v>115922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>166321</v>
+        <v>164566</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>143644</v>
+        <v>142083</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>157322</v>
+        <v>159793</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>287008</v>
+        <v>289837</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>385331</v>
+        <v>384561</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>364434</v>
+        <v>369758</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>389249</v>
+        <v>392191</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31304</v>
+        <v>29893</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75894</v>
+        <v>74848</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>101560</v>
+        <v>101849</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>79531</v>
+        <v>79802</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>90817</v>
+        <v>89786</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>172504</v>
+        <v>171656</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>145700</v>
+        <v>147155</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>175633</v>
+        <v>174889</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>127588</v>
+        <v>127015</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>259641</v>
+        <v>255813</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>259074</v>
+        <v>258960</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>264603</v>
+        <v>265991</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>56465</v>
+        <v>55203</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>109714</v>
+        <v>110382</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>141659</v>
+        <v>141180</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>114492</v>
+        <v>116852</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>128298</v>
+        <v>130073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>221833</v>
+        <v>223055</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>193262</v>
+        <v>194395</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>214419</v>
+        <v>213627</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>176524</v>
+        <v>173409</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>320004</v>
+        <v>316435</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>321454</v>
+        <v>322763</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>319095</v>
+        <v>318571</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5155</v>
+        <v>5119</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7461</v>
+        <v>7114</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5130</v>
+        <v>5038</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>195739</v>
+        <v>196059</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>229072</v>
+        <v>228430</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>205398</v>
+        <v>204245</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>124854</v>
+        <v>127079</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>202755</v>
+        <v>203827</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>235935</v>
+        <v>239056</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>217406</v>
+        <v>216527</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>135654</v>
+        <v>136054</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14881</v>
+        <v>15019</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18349</v>
+        <v>17567</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>21913</v>
+        <v>22150</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>29256</v>
+        <v>28937</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>250415</v>
+        <v>248891</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>286520</v>
+        <v>285719</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>260797</v>
+        <v>260234</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>164643</v>
+        <v>164231</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>258818</v>
+        <v>262560</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>296426</v>
+        <v>296787</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>274608</v>
+        <v>277155</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>178833</v>
+        <v>179874</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>358548</v>
+        <v>359520</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>513719</v>
+        <v>511839</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>513543</v>
+        <v>511202</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>529787</v>
+        <v>529505</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>457227</v>
+        <v>461077</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>665777</v>
+        <v>669037</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>577288</v>
+        <v>575308</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>567388</v>
+        <v>569360</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>835343</v>
+        <v>834502</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1202960</v>
+        <v>1208212</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1114868</v>
+        <v>1108357</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1116049</v>
+        <v>1112471</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>432467</v>
+        <v>428748</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>602380</v>
+        <v>604551</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>601879</v>
+        <v>603578</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>620380</v>
+        <v>619121</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>534494</v>
+        <v>542952</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>766148</v>
+        <v>764624</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>675434</v>
+        <v>670065</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>641724</v>
+        <v>644087</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>942207</v>
+        <v>948575</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1334246</v>
+        <v>1344275</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1240159</v>
+        <v>1249103</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1232334</v>
+        <v>1233774</v>
       </c>
     </row>
     <row r="32">
